--- a/courses/excel/offshore/SEAPAE/aibt/BRANSON_SCHOOL_OF_BUSINESS_AND_TECHNOLOGY.xlsx
+++ b/courses/excel/offshore/SEAPAE/aibt/BRANSON_SCHOOL_OF_BUSINESS_AND_TECHNOLOGY.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/offshore/SEAPAE/aibt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\offshore\SEAPAE\aibt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_8B0793BC4D8FB449C1A31B906111E0B2BDCA04CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDFE60A-E608-4B73-A247-47E2AC3BBF7C}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t>vetCode</t>
   </si>
@@ -95,9 +94,6 @@
     <t>104695K</t>
   </si>
   <si>
-    <t>BRANSON SCHOOL OF BUSINESS AND TECHNOLOGY</t>
-  </si>
-  <si>
     <t>44 wks Tuition + 8 wks Break</t>
   </si>
   <si>
@@ -105,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Promotion valid until  31th Dec 2021</t>
   </si>
   <si>
     <t>FNS50217</t>
@@ -328,17 +321,43 @@
   </si>
   <si>
     <t>19,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Graduate Studies</t>
+  </si>
+  <si>
+    <t>Packages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -346,20 +365,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -679,35 +698,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45">
+    <row r="2" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -771,10 +790,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>52</v>
@@ -782,487 +801,457 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3">
         <v>8500</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="45">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="3">
         <v>10500</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I4" s="3">
         <v>12500</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="3">
         <v>12000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="45">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I6" s="3">
         <v>13000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="45">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I7" s="3">
         <v>14000</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="45">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I8" s="3">
         <v>10500</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="45">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>52</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I9" s="3">
         <v>12000</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="45">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>52</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I10" s="3">
         <v>8500</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="45">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I11" s="3">
         <v>10500</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="45">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>52</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I12" s="3">
         <v>12500</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="45">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <v>52</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I13" s="3">
         <v>10500</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14">
-        <v>52</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I14" s="3">
         <v>12500</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="45">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <v>52</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I15" s="3">
         <v>13500</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16">
-        <v>52</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I16" s="3">
         <v>13500</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="45">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E17">
         <v>104</v>
@@ -1274,59 +1263,55 @@
         <v>22000</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M17" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E18">
         <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I18" s="3">
         <v>29000</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M18" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="45">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E19">
         <v>104</v>
@@ -1338,27 +1323,25 @@
         <v>24000</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="45">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E20">
         <v>104</v>
@@ -1370,27 +1353,25 @@
         <v>18800</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
         <v>7</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="45">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E21">
         <v>104</v>
@@ -1402,27 +1383,25 @@
         <v>19000</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="45">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E22">
         <v>104</v>
@@ -1434,14 +1413,12 @@
         <v>18800</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="R22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
